--- a/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
+++ b/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="184">
   <si>
     <t>Process</t>
   </si>
@@ -406,166 +406,166 @@
     <t>typical</t>
   </si>
   <si>
+    <t>tsmc2p (1)</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>tsmc2p (2)</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>tsmc2p (3)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>tsmc2p (4)</t>
+  </si>
+  <si>
+    <t>tsmc2p (5)</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>tsmc2p (6)</t>
+  </si>
+  <si>
+    <t>tsmc2p (7)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
+    <t>tsmc2p (8)</t>
+  </si>
+  <si>
+    <t>tsmc2p (9)</t>
+  </si>
+  <si>
+    <t>tsmc2p (10)</t>
+  </si>
+  <si>
+    <t>tsmc2p (11)</t>
+  </si>
+  <si>
+    <t>mosulvt_sf</t>
+  </si>
+  <si>
+    <t>moselvt_sf</t>
+  </si>
+  <si>
+    <t>moslvt_sf</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst_t</t>
+  </si>
+  <si>
+    <t>tsmc2p (12)</t>
+  </si>
+  <si>
+    <t>tsmc2p (13)</t>
+  </si>
+  <si>
+    <t>tsmc2p (14)</t>
+  </si>
+  <si>
+    <t>tsmc2p (15)</t>
+  </si>
+  <si>
+    <t>mosulvt_fs</t>
+  </si>
+  <si>
+    <t>moselvt_fs</t>
+  </si>
+  <si>
+    <t>moslvt_fs</t>
+  </si>
+  <si>
+    <t>tsmc2p (16)</t>
+  </si>
+  <si>
+    <t>tsmc2p (17)</t>
+  </si>
+  <si>
+    <t>tsmc2p (18)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Spec upper bound</t>
+  </si>
+  <si>
+    <t>Spec lower bound</t>
+  </si>
+  <si>
+    <t>Internal upper bound</t>
+  </si>
+  <si>
+    <t>Internal lower bound</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>Rel. Std. Dev. %</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (1)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>tsmc2p (2)</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>tsmc2p (3)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>tsmc2p (4)</t>
-  </si>
-  <si>
-    <t>tsmc2p (5)</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>tsmc2p (6)</t>
-  </si>
-  <si>
-    <t>tsmc2p (7)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
-  </si>
-  <si>
-    <t>tsmc2p (8)</t>
-  </si>
-  <si>
-    <t>tsmc2p (9)</t>
-  </si>
-  <si>
-    <t>tsmc2p (10)</t>
-  </si>
-  <si>
-    <t>tsmc2p (11)</t>
-  </si>
-  <si>
-    <t>mosulvt_sf</t>
-  </si>
-  <si>
-    <t>moselvt_sf</t>
-  </si>
-  <si>
-    <t>moslvt_sf</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>tsmc2p (12)</t>
-  </si>
-  <si>
-    <t>tsmc2p (13)</t>
-  </si>
-  <si>
-    <t>tsmc2p (14)</t>
-  </si>
-  <si>
-    <t>tsmc2p (15)</t>
-  </si>
-  <si>
-    <t>mosulvt_fs</t>
-  </si>
-  <si>
-    <t>moselvt_fs</t>
-  </si>
-  <si>
-    <t>moslvt_fs</t>
-  </si>
-  <si>
-    <t>tsmc2p (16)</t>
-  </si>
-  <si>
-    <t>tsmc2p (17)</t>
-  </si>
-  <si>
-    <t>tsmc2p (18)</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Spec upper bound</t>
-  </si>
-  <si>
-    <t>Spec lower bound</t>
-  </si>
-  <si>
-    <t>Internal upper bound</t>
-  </si>
-  <si>
-    <t>Internal lower bound</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std. Dev.</t>
-  </si>
-  <si>
-    <t>Rel. Std. Dev. %</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -605,7 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,17 +1322,17 @@
       <c r="K2" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>130</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-39.5449</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-32.7063</v>
       </c>
       <c r="P2">
         <v>50.665</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="3" spans="1:119">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -1673,7 +1673,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
         <v>128</v>
@@ -1681,17 +1681,17 @@
       <c r="K3" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>130</v>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-38.8859</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-32.0697</v>
       </c>
       <c r="P3">
         <v>50.4554</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="4" spans="1:119">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -2032,7 +2032,7 @@
         <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
@@ -2040,17 +2040,17 @@
       <c r="K4" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>130</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-40.3515</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-33.2564</v>
       </c>
       <c r="P4">
         <v>50.7451</v>
@@ -2367,49 +2367,49 @@
     </row>
     <row r="5" spans="1:119">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>137</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>141</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
         <v>142</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" t="s">
-        <v>143</v>
       </c>
       <c r="K5" t="s">
         <v>129</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>130</v>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-70.8387</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-56.093</v>
       </c>
       <c r="P5">
         <v>80.8383</v>
@@ -2726,49 +2726,49 @@
     </row>
     <row r="6" spans="1:119">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>141</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" t="s">
         <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" t="s">
-        <v>143</v>
       </c>
       <c r="K6" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>130</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-64.1125</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-54.0788</v>
       </c>
       <c r="P6">
         <v>75.43860000000001</v>
@@ -3085,49 +3085,49 @@
     </row>
     <row r="7" spans="1:119">
       <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" t="s">
-        <v>146</v>
       </c>
       <c r="K7" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>130</v>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-46.2046</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-38.2775</v>
       </c>
       <c r="P7">
         <v>56.8384</v>
@@ -3444,49 +3444,49 @@
     </row>
     <row r="8" spans="1:119">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>139</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>140</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>141</v>
       </c>
-      <c r="H8" t="s">
-        <v>142</v>
-      </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>130</v>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-47.4089</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-39.4499</v>
       </c>
       <c r="P8">
         <v>57.0295</v>
@@ -3803,49 +3803,49 @@
     </row>
     <row r="9" spans="1:119">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>149</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>150</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>151</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>152</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>153</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>154</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" t="s">
         <v>155</v>
       </c>
-      <c r="I9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>130</v>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-33.5825</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-27.5827</v>
       </c>
       <c r="P9">
         <v>45.3363</v>
@@ -4162,49 +4162,49 @@
     </row>
     <row r="10" spans="1:119">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
         <v>149</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>150</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>154</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" t="s">
         <v>155</v>
       </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>130</v>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-35.5456</v>
+      </c>
+      <c r="O10" s="2">
+        <v>-28.7853</v>
       </c>
       <c r="P10">
         <v>45.8955</v>
@@ -4521,49 +4521,49 @@
     </row>
     <row r="11" spans="1:119">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
         <v>149</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>150</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>151</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>152</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>153</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>154</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
         <v>155</v>
       </c>
-      <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>130</v>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-27.4473</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-22.4571</v>
       </c>
       <c r="P11">
         <v>37.3048</v>
@@ -4880,49 +4880,49 @@
     </row>
     <row r="12" spans="1:119">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
         <v>149</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>150</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>151</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>153</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>154</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s">
         <v>155</v>
       </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>130</v>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-30.2591</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-24.3288</v>
       </c>
       <c r="P12">
         <v>39.509</v>
@@ -5239,49 +5239,49 @@
     </row>
     <row r="13" spans="1:119">
       <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
         <v>160</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>162</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
         <v>163</v>
       </c>
-      <c r="E13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>130</v>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-47.1133</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-40.0209</v>
       </c>
       <c r="P13">
         <v>61.0643</v>
@@ -5598,49 +5598,49 @@
     </row>
     <row r="14" spans="1:119">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>162</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
         <v>163</v>
       </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>130</v>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-47.1373</v>
+      </c>
+      <c r="O14" s="2">
+        <v>-39.5302</v>
       </c>
       <c r="P14">
         <v>59.3018</v>
@@ -5957,49 +5957,49 @@
     </row>
     <row r="15" spans="1:119">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
         <v>161</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>130</v>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-34.8795</v>
+      </c>
+      <c r="O15" s="2">
+        <v>-29.4394</v>
       </c>
       <c r="P15">
         <v>46.7556</v>
@@ -6316,49 +6316,49 @@
     </row>
     <row r="16" spans="1:119">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
         <v>161</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>162</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
         <v>163</v>
       </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>130</v>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-37.2225</v>
+      </c>
+      <c r="O16" s="2">
+        <v>-30.934</v>
       </c>
       <c r="P16">
         <v>48.0626</v>
@@ -6675,49 +6675,49 @@
     </row>
     <row r="17" spans="1:119">
       <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
         <v>168</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>169</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>170</v>
       </c>
-      <c r="D17" t="s">
-        <v>171</v>
-      </c>
       <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
         <v>152</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>153</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>154</v>
       </c>
-      <c r="H17" t="s">
-        <v>155</v>
-      </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-46.4719</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-37.1291</v>
       </c>
       <c r="P17">
         <v>59.24020000000001</v>
@@ -7034,49 +7034,49 @@
     </row>
     <row r="18" spans="1:119">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
         <v>169</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>170</v>
       </c>
-      <c r="D18" t="s">
-        <v>171</v>
-      </c>
       <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
         <v>152</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>153</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>154</v>
       </c>
-      <c r="H18" t="s">
-        <v>155</v>
-      </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-45.97</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-37.4197</v>
       </c>
       <c r="P18">
         <v>57.0144</v>
@@ -7393,49 +7393,49 @@
     </row>
     <row r="19" spans="1:119">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
         <v>169</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>170</v>
       </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
       <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
         <v>152</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>154</v>
       </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-34.3882</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-27.6433</v>
       </c>
       <c r="P19">
         <v>44.9174</v>
@@ -7752,49 +7752,49 @@
     </row>
     <row r="20" spans="1:119">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
         <v>169</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>170</v>
       </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
       <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
         <v>152</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>153</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>154</v>
       </c>
-      <c r="H20" t="s">
-        <v>155</v>
-      </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-36.5988</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-29.6124</v>
       </c>
       <c r="P20">
         <v>46.0761</v>
@@ -8470,19 +8470,19 @@
     </row>
     <row r="22" spans="1:119" s="1" customFormat="1">
       <c r="K22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-70.8387</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-56.093</v>
       </c>
       <c r="P22" s="1">
         <v>37.3048</v>
@@ -8799,19 +8799,19 @@
     </row>
     <row r="23" spans="1:119" s="1" customFormat="1">
       <c r="K23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>-27.4473</v>
+      </c>
+      <c r="O23" s="2">
+        <v>-22.4571</v>
       </c>
       <c r="P23" s="1">
         <v>80.8383</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="24" spans="1:119" s="1" customFormat="1">
       <c r="K24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="25" spans="1:119" s="1" customFormat="1">
       <c r="K25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L25" s="1">
         <v>0</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="26" spans="1:119" s="1" customFormat="1">
       <c r="K26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L26" s="1">
         <v>3</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="27" spans="1:119" s="1" customFormat="1">
       <c r="K27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -9820,19 +9820,19 @@
     </row>
     <row r="28" spans="1:119" s="1" customFormat="1">
       <c r="K28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>130</v>
+        <v>180</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-42.31384210526315</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-34.77971052631579</v>
       </c>
       <c r="P28" s="1">
         <v>53.28885789473684</v>
@@ -10149,19 +10149,19 @@
     </row>
     <row r="29" spans="1:119" s="1" customFormat="1">
       <c r="K29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>130</v>
+        <v>181</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>10.50117221924425</v>
+      </c>
+      <c r="O29" s="1">
+        <v>8.605330226508313</v>
       </c>
       <c r="P29" s="1">
         <v>10.75774222606387</v>
@@ -10478,19 +10478,19 @@
     </row>
     <row r="30" spans="1:119" s="1" customFormat="1">
       <c r="K30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
+      </c>
+      <c r="N30" s="1">
+        <v>24.81734509742871</v>
+      </c>
+      <c r="O30" s="1">
+        <v>24.74238599541293</v>
       </c>
       <c r="P30" s="1">
         <v>20.18760140687192</v>

--- a/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
+++ b/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="183">
   <si>
     <t>Process</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>Rel. Std. Dev. %</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -1323,16 +1320,16 @@
         <v>129</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.988882</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.929715</v>
       </c>
       <c r="N2" s="2">
-        <v>-39.5449</v>
+        <v>-39.0961</v>
       </c>
       <c r="O2" s="2">
-        <v>-32.7063</v>
+        <v>-32.3089</v>
       </c>
       <c r="P2">
         <v>50.665</v>
@@ -1682,16 +1679,16 @@
         <v>129</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.908544</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8587130000000001</v>
       </c>
       <c r="N3" s="2">
-        <v>-38.8859</v>
+        <v>-38.4428</v>
       </c>
       <c r="O3" s="2">
-        <v>-32.0697</v>
+        <v>-31.6777</v>
       </c>
       <c r="P3">
         <v>50.4554</v>
@@ -2041,16 +2038,16 @@
         <v>129</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.37605</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.30954</v>
       </c>
       <c r="N4" s="2">
-        <v>-40.3515</v>
+        <v>-39.8944</v>
       </c>
       <c r="O4" s="2">
-        <v>-33.2564</v>
+        <v>-32.8519</v>
       </c>
       <c r="P4">
         <v>50.7451</v>
@@ -2400,16 +2397,16 @@
         <v>129</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.622014</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.763781</v>
       </c>
       <c r="N5" s="2">
-        <v>-70.8387</v>
+        <v>-70.14779999999999</v>
       </c>
       <c r="O5" s="2">
-        <v>-56.093</v>
+        <v>-55.5513</v>
       </c>
       <c r="P5">
         <v>80.8383</v>
@@ -2759,16 +2756,16 @@
         <v>129</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.14751</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.06536</v>
       </c>
       <c r="N6" s="2">
-        <v>-64.1125</v>
+        <v>-63.45970000000001</v>
       </c>
       <c r="O6" s="2">
-        <v>-54.0788</v>
+        <v>-53.5351</v>
       </c>
       <c r="P6">
         <v>75.43860000000001</v>
@@ -3118,16 +3115,16 @@
         <v>129</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8394250000000001</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.793391</v>
       </c>
       <c r="N7" s="2">
-        <v>-46.2046</v>
+        <v>-45.7087</v>
       </c>
       <c r="O7" s="2">
-        <v>-38.2775</v>
+        <v>-37.8459</v>
       </c>
       <c r="P7">
         <v>56.8384</v>
@@ -3477,16 +3474,16 @@
         <v>129</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.30898</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.24364</v>
       </c>
       <c r="N8" s="2">
-        <v>-47.4089</v>
+        <v>-46.9023</v>
       </c>
       <c r="O8" s="2">
-        <v>-39.4499</v>
+        <v>-39.00689999999999</v>
       </c>
       <c r="P8">
         <v>57.0295</v>
@@ -3836,16 +3833,16 @@
         <v>155</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.835582</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.786599</v>
       </c>
       <c r="N9" s="2">
-        <v>-33.5825</v>
+        <v>-33.1797</v>
       </c>
       <c r="O9" s="2">
-        <v>-27.5827</v>
+        <v>-27.2154</v>
       </c>
       <c r="P9">
         <v>45.3363</v>
@@ -4195,16 +4192,16 @@
         <v>155</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.03722</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.962571</v>
       </c>
       <c r="N10" s="2">
-        <v>-35.5456</v>
+        <v>-35.1249</v>
       </c>
       <c r="O10" s="2">
-        <v>-28.7853</v>
+        <v>-28.4053</v>
       </c>
       <c r="P10">
         <v>45.8955</v>
@@ -4554,16 +4551,16 @@
         <v>155</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.9194780000000001</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.871606</v>
       </c>
       <c r="N11" s="2">
-        <v>-27.4473</v>
+        <v>-27.1029</v>
       </c>
       <c r="O11" s="2">
-        <v>-22.4571</v>
+        <v>-22.1452</v>
       </c>
       <c r="P11">
         <v>37.3048</v>
@@ -4913,16 +4910,16 @@
         <v>155</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.10351</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.03371</v>
       </c>
       <c r="N12" s="2">
-        <v>-30.2591</v>
+        <v>-29.8858</v>
       </c>
       <c r="O12" s="2">
-        <v>-24.3288</v>
+        <v>-23.9924</v>
       </c>
       <c r="P12">
         <v>39.509</v>
@@ -5272,16 +5269,16 @@
         <v>163</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.23553</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.07859</v>
       </c>
       <c r="N13" s="2">
-        <v>-47.1133</v>
+        <v>-46.5197</v>
       </c>
       <c r="O13" s="2">
-        <v>-40.0209</v>
+        <v>-39.5994</v>
       </c>
       <c r="P13">
         <v>61.0643</v>
@@ -5631,16 +5628,16 @@
         <v>163</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.49042</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.34281</v>
       </c>
       <c r="N14" s="2">
-        <v>-47.1373</v>
+        <v>-46.5609</v>
       </c>
       <c r="O14" s="2">
-        <v>-39.5302</v>
+        <v>-39.09930000000001</v>
       </c>
       <c r="P14">
         <v>59.3018</v>
@@ -5990,16 +5987,16 @@
         <v>163</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.32783</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.22903</v>
       </c>
       <c r="N15" s="2">
-        <v>-34.8795</v>
+        <v>-34.43</v>
       </c>
       <c r="O15" s="2">
-        <v>-29.4394</v>
+        <v>-29.099</v>
       </c>
       <c r="P15">
         <v>46.7556</v>
@@ -6349,16 +6346,16 @@
         <v>163</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.57601</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.45839</v>
       </c>
       <c r="N16" s="2">
-        <v>-37.2225</v>
+        <v>-36.7579</v>
       </c>
       <c r="O16" s="2">
-        <v>-30.934</v>
+        <v>-30.5688</v>
       </c>
       <c r="P16">
         <v>48.0626</v>
@@ -6708,16 +6705,16 @@
         <v>163</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.13907</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.19005</v>
       </c>
       <c r="N17" s="2">
-        <v>-46.4719</v>
+        <v>-46.0208</v>
       </c>
       <c r="O17" s="2">
-        <v>-37.1291</v>
+        <v>-36.6129</v>
       </c>
       <c r="P17">
         <v>59.24020000000001</v>
@@ -7067,16 +7064,16 @@
         <v>163</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.42919</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.41937</v>
       </c>
       <c r="N18" s="2">
-        <v>-45.97</v>
+        <v>-45.5039</v>
       </c>
       <c r="O18" s="2">
-        <v>-37.4197</v>
+        <v>-36.9233</v>
       </c>
       <c r="P18">
         <v>57.0144</v>
@@ -7426,16 +7423,16 @@
         <v>163</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.2818</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.29023</v>
       </c>
       <c r="N19" s="2">
-        <v>-34.3882</v>
+        <v>-34.0166</v>
       </c>
       <c r="O19" s="2">
-        <v>-27.6433</v>
+        <v>-27.2496</v>
       </c>
       <c r="P19">
         <v>44.9174</v>
@@ -7785,16 +7782,16 @@
         <v>163</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.52963</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.51196</v>
       </c>
       <c r="N20" s="2">
-        <v>-36.5988</v>
+        <v>-36.1991</v>
       </c>
       <c r="O20" s="2">
-        <v>-29.6124</v>
+        <v>-29.2061</v>
       </c>
       <c r="P20">
         <v>46.0761</v>
@@ -8473,16 +8470,16 @@
         <v>174</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>0.622014</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>0.763781</v>
       </c>
       <c r="N22" s="2">
-        <v>-70.8387</v>
+        <v>-70.14779999999999</v>
       </c>
       <c r="O22" s="2">
-        <v>-56.093</v>
+        <v>-55.5513</v>
       </c>
       <c r="P22" s="1">
         <v>37.3048</v>
@@ -8802,16 +8799,16 @@
         <v>175</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>1.57601</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>1.51196</v>
       </c>
       <c r="N23" s="2">
-        <v>-27.4473</v>
+        <v>-27.1029</v>
       </c>
       <c r="O23" s="2">
-        <v>-22.4571</v>
+        <v>-22.1452</v>
       </c>
       <c r="P23" s="1">
         <v>80.8383</v>
@@ -9823,16 +9820,16 @@
         <v>180</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1.162982894736842</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>1.112581894736842</v>
       </c>
       <c r="N28" s="1">
-        <v>-42.31384210526315</v>
+        <v>-41.83968421052631</v>
       </c>
       <c r="O28" s="1">
-        <v>-34.77971052631579</v>
+        <v>-34.36286315789473</v>
       </c>
       <c r="P28" s="1">
         <v>53.28885789473684</v>
@@ -10152,16 +10149,16 @@
         <v>181</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>0.2590883356806678</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>0.2352129289641274</v>
       </c>
       <c r="N29" s="1">
-        <v>10.50117221924425</v>
+        <v>10.41562920277746</v>
       </c>
       <c r="O29" s="1">
-        <v>8.605330226508313</v>
+        <v>8.547388497707818</v>
       </c>
       <c r="P29" s="1">
         <v>10.75774222606387</v>
@@ -10480,17 +10477,17 @@
       <c r="K30" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>183</v>
+      <c r="L30" s="1">
+        <v>22.2779145637644</v>
+      </c>
+      <c r="M30" s="1">
+        <v>21.14117891696971</v>
       </c>
       <c r="N30" s="1">
-        <v>24.81734509742871</v>
+        <v>24.89413913921708</v>
       </c>
       <c r="O30" s="1">
-        <v>24.74238599541293</v>
+        <v>24.87391245145441</v>
       </c>
       <c r="P30" s="1">
         <v>20.18760140687192</v>

--- a/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
+++ b/txcal_txfifo_top_timing_skew_tsmc2p_meas.xlsx
@@ -569,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,26 +585,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -619,10 +606,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,11 +1311,11 @@
       <c r="M2">
         <v>0.929715</v>
       </c>
-      <c r="N2" s="2">
-        <v>-39.0961</v>
-      </c>
-      <c r="O2" s="2">
-        <v>-32.3089</v>
+      <c r="N2">
+        <v>0.4487680000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.397394</v>
       </c>
       <c r="P2">
         <v>50.665</v>
@@ -1684,11 +1670,11 @@
       <c r="M3">
         <v>0.8587130000000001</v>
       </c>
-      <c r="N3" s="2">
-        <v>-38.4428</v>
-      </c>
-      <c r="O3" s="2">
-        <v>-31.6777</v>
+      <c r="N3">
+        <v>0.443121</v>
+      </c>
+      <c r="O3">
+        <v>0.391996</v>
       </c>
       <c r="P3">
         <v>50.4554</v>
@@ -2043,11 +2029,11 @@
       <c r="M4">
         <v>1.30954</v>
       </c>
-      <c r="N4" s="2">
-        <v>-39.8944</v>
-      </c>
-      <c r="O4" s="2">
-        <v>-32.8519</v>
+      <c r="N4">
+        <v>0.457076</v>
+      </c>
+      <c r="O4">
+        <v>0.404486</v>
       </c>
       <c r="P4">
         <v>50.7451</v>
@@ -2402,11 +2388,11 @@
       <c r="M5">
         <v>0.763781</v>
       </c>
-      <c r="N5" s="2">
-        <v>-70.14779999999999</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-55.5513</v>
+      <c r="N5">
+        <v>0.690883</v>
+      </c>
+      <c r="O5">
+        <v>0.5417609999999999</v>
       </c>
       <c r="P5">
         <v>80.8383</v>
@@ -2761,11 +2747,11 @@
       <c r="M6">
         <v>1.06536</v>
       </c>
-      <c r="N6" s="2">
-        <v>-63.45970000000001</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-53.5351</v>
+      <c r="N6">
+        <v>0.652803</v>
+      </c>
+      <c r="O6">
+        <v>0.543718</v>
       </c>
       <c r="P6">
         <v>75.43860000000001</v>
@@ -3120,11 +3106,11 @@
       <c r="M7">
         <v>0.793391</v>
       </c>
-      <c r="N7" s="2">
-        <v>-45.7087</v>
-      </c>
-      <c r="O7" s="2">
-        <v>-37.8459</v>
+      <c r="N7">
+        <v>0.4958540000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.431572</v>
       </c>
       <c r="P7">
         <v>56.8384</v>
@@ -3479,11 +3465,11 @@
       <c r="M8">
         <v>1.24364</v>
       </c>
-      <c r="N8" s="2">
-        <v>-46.9023</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-39.00689999999999</v>
+      <c r="N8">
+        <v>0.506584</v>
+      </c>
+      <c r="O8">
+        <v>0.44301</v>
       </c>
       <c r="P8">
         <v>57.0295</v>
@@ -3838,11 +3824,11 @@
       <c r="M9">
         <v>0.786599</v>
       </c>
-      <c r="N9" s="2">
-        <v>-33.1797</v>
-      </c>
-      <c r="O9" s="2">
-        <v>-27.2154</v>
+      <c r="N9">
+        <v>0.402832</v>
+      </c>
+      <c r="O9">
+        <v>0.367258</v>
       </c>
       <c r="P9">
         <v>45.3363</v>
@@ -4197,11 +4183,11 @@
       <c r="M10">
         <v>0.962571</v>
       </c>
-      <c r="N10" s="2">
-        <v>-35.1249</v>
-      </c>
-      <c r="O10" s="2">
-        <v>-28.4053</v>
+      <c r="N10">
+        <v>0.420688</v>
+      </c>
+      <c r="O10">
+        <v>0.380008</v>
       </c>
       <c r="P10">
         <v>45.8955</v>
@@ -4556,11 +4542,11 @@
       <c r="M11">
         <v>0.871606</v>
       </c>
-      <c r="N11" s="2">
-        <v>-27.1029</v>
-      </c>
-      <c r="O11" s="2">
-        <v>-22.1452</v>
+      <c r="N11">
+        <v>0.344385</v>
+      </c>
+      <c r="O11">
+        <v>0.311941</v>
       </c>
       <c r="P11">
         <v>37.3048</v>
@@ -4915,11 +4901,11 @@
       <c r="M12">
         <v>1.03371</v>
       </c>
-      <c r="N12" s="2">
-        <v>-29.8858</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-23.9924</v>
+      <c r="N12">
+        <v>0.373287</v>
+      </c>
+      <c r="O12">
+        <v>0.33647</v>
       </c>
       <c r="P12">
         <v>39.509</v>
@@ -5274,11 +5260,11 @@
       <c r="M13">
         <v>1.07859</v>
       </c>
-      <c r="N13" s="2">
-        <v>-46.5197</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-39.5994</v>
+      <c r="N13">
+        <v>0.5936140000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.421492</v>
       </c>
       <c r="P13">
         <v>61.0643</v>
@@ -5633,11 +5619,11 @@
       <c r="M14">
         <v>1.34281</v>
       </c>
-      <c r="N14" s="2">
-        <v>-46.5609</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-39.09930000000001</v>
+      <c r="N14">
+        <v>0.5764</v>
+      </c>
+      <c r="O14">
+        <v>0.43092</v>
       </c>
       <c r="P14">
         <v>59.3018</v>
@@ -5992,11 +5978,11 @@
       <c r="M15">
         <v>1.22903</v>
       </c>
-      <c r="N15" s="2">
-        <v>-34.43</v>
-      </c>
-      <c r="O15" s="2">
-        <v>-29.099</v>
+      <c r="N15">
+        <v>0.449507</v>
+      </c>
+      <c r="O15">
+        <v>0.340451</v>
       </c>
       <c r="P15">
         <v>46.7556</v>
@@ -6351,11 +6337,11 @@
       <c r="M16">
         <v>1.45839</v>
       </c>
-      <c r="N16" s="2">
-        <v>-36.7579</v>
-      </c>
-      <c r="O16" s="2">
-        <v>-30.5688</v>
+      <c r="N16">
+        <v>0.4645859999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.365202</v>
       </c>
       <c r="P16">
         <v>48.0626</v>
@@ -6710,11 +6696,11 @@
       <c r="M17">
         <v>1.19005</v>
       </c>
-      <c r="N17" s="2">
-        <v>-46.0208</v>
-      </c>
-      <c r="O17" s="2">
-        <v>-36.6129</v>
+      <c r="N17">
+        <v>0.451112</v>
+      </c>
+      <c r="O17">
+        <v>0.516201</v>
       </c>
       <c r="P17">
         <v>59.24020000000001</v>
@@ -7069,11 +7055,11 @@
       <c r="M18">
         <v>1.41937</v>
       </c>
-      <c r="N18" s="2">
-        <v>-45.5039</v>
-      </c>
-      <c r="O18" s="2">
-        <v>-36.9233</v>
+      <c r="N18">
+        <v>0.466058</v>
+      </c>
+      <c r="O18">
+        <v>0.496391</v>
       </c>
       <c r="P18">
         <v>57.0144</v>
@@ -7428,11 +7414,11 @@
       <c r="M19">
         <v>1.29023</v>
       </c>
-      <c r="N19" s="2">
-        <v>-34.0166</v>
-      </c>
-      <c r="O19" s="2">
-        <v>-27.2496</v>
+      <c r="N19">
+        <v>0.371688</v>
+      </c>
+      <c r="O19">
+        <v>0.393787</v>
       </c>
       <c r="P19">
         <v>44.9174</v>
@@ -7787,11 +7773,11 @@
       <c r="M20">
         <v>1.51196</v>
       </c>
-      <c r="N20" s="2">
-        <v>-36.1991</v>
-      </c>
-      <c r="O20" s="2">
-        <v>-29.2061</v>
+      <c r="N20">
+        <v>0.399705</v>
+      </c>
+      <c r="O20">
+        <v>0.406359</v>
       </c>
       <c r="P20">
         <v>46.0761</v>
@@ -8475,11 +8461,11 @@
       <c r="M22" s="1">
         <v>0.763781</v>
       </c>
-      <c r="N22" s="2">
-        <v>-70.14779999999999</v>
-      </c>
-      <c r="O22" s="2">
-        <v>-55.5513</v>
+      <c r="N22" s="1">
+        <v>0.344385</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.311941</v>
       </c>
       <c r="P22" s="1">
         <v>37.3048</v>
@@ -8804,11 +8790,11 @@
       <c r="M23" s="1">
         <v>1.51196</v>
       </c>
-      <c r="N23" s="2">
-        <v>-27.1029</v>
-      </c>
-      <c r="O23" s="2">
-        <v>-22.1452</v>
+      <c r="N23" s="1">
+        <v>0.690883</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.543718</v>
       </c>
       <c r="P23" s="1">
         <v>80.8383</v>
@@ -9826,10 +9812,10 @@
         <v>1.112581894736842</v>
       </c>
       <c r="N28" s="1">
-        <v>-41.83968421052631</v>
+        <v>0.4741553157894738</v>
       </c>
       <c r="O28" s="1">
-        <v>-34.36286315789473</v>
+        <v>0.4168640526315789</v>
       </c>
       <c r="P28" s="1">
         <v>53.28885789473684</v>
@@ -10155,10 +10141,10 @@
         <v>0.2352129289641274</v>
       </c>
       <c r="N29" s="1">
-        <v>10.41562920277746</v>
+        <v>0.09157413753896643</v>
       </c>
       <c r="O29" s="1">
-        <v>8.547388497707818</v>
+        <v>0.06512950072737568</v>
       </c>
       <c r="P29" s="1">
         <v>10.75774222606387</v>
@@ -10484,10 +10470,10 @@
         <v>21.14117891696971</v>
       </c>
       <c r="N30" s="1">
-        <v>24.89413913921708</v>
+        <v>19.31310996408308</v>
       </c>
       <c r="O30" s="1">
-        <v>24.87391245145441</v>
+        <v>15.62367882676048</v>
       </c>
       <c r="P30" s="1">
         <v>20.18760140687192</v>
